--- a/ig/main/ValueSet-JDV-J10-XdsFormatCode-CISIS.xlsx
+++ b/ig/main/ValueSet-JDV-J10-XdsFormatCode-CISIS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="199">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-30T12:00:00+01:00</t>
+    <t>2023-12-15T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -265,6 +265,12 @@
   </si>
   <si>
     <t>Compte-rendu de consultation d'évaluation pluri-professionnelle post AVC</t>
+  </si>
+  <si>
+    <t>urn:asip:ci-sis:ppp:2023</t>
+  </si>
+  <si>
+    <t>Plan personnalisé de prévention</t>
   </si>
   <si>
     <t>urn:asip:ci-sis:pps-cancer:2017</t>
@@ -869,7 +875,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1260,15 +1266,23 @@
         <v>119</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>121</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1298,290 +1312,290 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -1611,26 +1625,26 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -1660,26 +1674,26 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/ig/main/ValueSet-JDV-J10-XdsFormatCode-CISIS.xlsx
+++ b/ig/main/ValueSet-JDV-J10-XdsFormatCode-CISIS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="159">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>id: urn:oid:1.2.250.1.213.1.1.5.465</t>
+    <t>urn:oid:1.2.250.1.213.1.1.5.465</t>
   </si>
   <si>
     <t>Version</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-15T12:00:00+01:00</t>
+    <t>2024-01-26T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -438,132 +438,6 @@
     <t>Compte rendu structuré d'examens de biologie médicale</t>
   </si>
   <si>
-    <t>urn:ihe:pat:apsr:all:2010</t>
-  </si>
-  <si>
-    <t>Compte rendu d'anatomie et de cytologie pathologiques - Modèle générique</t>
-  </si>
-  <si>
-    <t>urn:ihe:pat:apsr:breast:2010</t>
-  </si>
-  <si>
-    <t>Compte rendu d'anatomie et de cytologie pathologiques - Sein</t>
-  </si>
-  <si>
-    <t>urn:ihe:pat:apsr:cervix:2010</t>
-  </si>
-  <si>
-    <t>Compte rendu d'anatomie et de cytologie pathologiques - Col de l'utérus</t>
-  </si>
-  <si>
-    <t>urn:ihe:pat:apsr:colon:2010</t>
-  </si>
-  <si>
-    <t>Compte rendu d'anatomie et de cytologie pathologiques - Côlon</t>
-  </si>
-  <si>
-    <t>urn:ihe:pat:apsr:endometrium:2010</t>
-  </si>
-  <si>
-    <t>Compte rendu d'anatomie et de cytologie pathologiques - Corps utérin</t>
-  </si>
-  <si>
-    <t>urn:ihe:pat:apsr:esophagus:2010</t>
-  </si>
-  <si>
-    <t>Compte rendu d'anatomie et de cytologie pathologiques - Oesophage</t>
-  </si>
-  <si>
-    <t>urn:ihe:pat:apsr:kidney:2010</t>
-  </si>
-  <si>
-    <t>Compte rendu d'anatomie et de cytologie pathologiques - Rein</t>
-  </si>
-  <si>
-    <t>urn:ihe:pat:apsr:larynx:2010</t>
-  </si>
-  <si>
-    <t>Compte rendu d'anatomie et de cytologie pathologiques - Larynx</t>
-  </si>
-  <si>
-    <t>urn:ihe:pat:apsr:lip_oral_cavity:2010</t>
-  </si>
-  <si>
-    <t>Compte rendu d'anatomie et de cytologie pathologiques - Cavité buccale</t>
-  </si>
-  <si>
-    <t>urn:ihe:pat:apsr:liver:2010</t>
-  </si>
-  <si>
-    <t>Compte rendu d'anatomie et de cytologie pathologiques - Foie</t>
-  </si>
-  <si>
-    <t>urn:ihe:pat:apsr:lung:2010</t>
-  </si>
-  <si>
-    <t>Compte rendu d'anatomie et de cytologie pathologiques - Poumon</t>
-  </si>
-  <si>
-    <t>urn:ihe:pat:apsr:ovary:2010</t>
-  </si>
-  <si>
-    <t>Compte rendu d'anatomie et de cytologie pathologiques - Ovaires</t>
-  </si>
-  <si>
-    <t>urn:ihe:pat:apsr:pancreas:2010</t>
-  </si>
-  <si>
-    <t>Compte rendu d'anatomie et de cytologie pathologiques - Pancréas</t>
-  </si>
-  <si>
-    <t>urn:ihe:pat:apsr:pharynx:2010</t>
-  </si>
-  <si>
-    <t>Compte rendu d'anatomie et de cytologie pathologiques - Pharynx</t>
-  </si>
-  <si>
-    <t>urn:ihe:pat:apsr:prostate:2010</t>
-  </si>
-  <si>
-    <t>Compte rendu d'anatomie et de cytologie pathologiques - Prostate</t>
-  </si>
-  <si>
-    <t>urn:ihe:pat:apsr:salivary_gland:2010</t>
-  </si>
-  <si>
-    <t>Compte rendu d'anatomie et de cytologie pathologiques - Glandes salivaires</t>
-  </si>
-  <si>
-    <t>urn:ihe:pat:apsr:skin:2010</t>
-  </si>
-  <si>
-    <t>Compte rendu d'anatomie et de cytologie pathologiques - Mélanome cutané</t>
-  </si>
-  <si>
-    <t>urn:ihe:pat:apsr:stomach:2010</t>
-  </si>
-  <si>
-    <t>Compte rendu d'anatomie et de cytologie pathologiques - Estomac</t>
-  </si>
-  <si>
-    <t>urn:ihe:pat:apsr:testis:2010</t>
-  </si>
-  <si>
-    <t>Compte rendu d'anatomie et de cytologie pathologiques - Testicule</t>
-  </si>
-  <si>
-    <t>urn:ihe:pat:apsr:thyroid:2010</t>
-  </si>
-  <si>
-    <t>Compte rendu d'anatomie et de cytologie pathologiques - Thyroïde</t>
-  </si>
-  <si>
-    <t>urn:ihe:pat:apsr:urinary_bladder:2010</t>
-  </si>
-  <si>
-    <t>Compte rendu d'anatomie et de cytologie pathologiques - Vessie</t>
-  </si>
-  <si>
     <t>urn:ihe:pharm:dis:2010</t>
   </si>
   <si>
@@ -580,6 +454,12 @@
   </si>
   <si>
     <t>Prescription de médicaments</t>
+  </si>
+  <si>
+    <t>urn:ihe:palm:apsr:2016</t>
+  </si>
+  <si>
+    <t>CR d'anatomie et de cytologie pathologiques</t>
   </si>
   <si>
     <t>urn:ihe:eyecare:geneyeevalcn:2014</t>
@@ -1292,7 +1172,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1424,178 +1304,18 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>153</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>192</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -1625,10 +1345,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>193</v>
+        <v>153</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>194</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3">
@@ -1644,7 +1364,7 @@
         <v>122</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>195</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -1674,10 +1394,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>196</v>
+        <v>156</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>197</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3">
@@ -1693,7 +1413,7 @@
         <v>122</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/ig/main/ValueSet-JDV-J10-XdsFormatCode-CISIS.xlsx
+++ b/ig/main/ValueSet-JDV-J10-XdsFormatCode-CISIS.xlsx
@@ -39,7 +39,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/ig/main/ValueSet-JDV-J10-XdsFormatCode-CISIS.xlsx
+++ b/ig/main/ValueSet-JDV-J10-XdsFormatCode-CISIS.xlsx
@@ -75,7 +75,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>ANS (https://esante.gouv.fr)</t>
   </si>
   <si>
     <t>Description</t>

--- a/ig/main/ValueSet-JDV-J10-XdsFormatCode-CISIS.xlsx
+++ b/ig/main/ValueSet-JDV-J10-XdsFormatCode-CISIS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="157">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-26T12:00:00+01:00</t>
+    <t>2024-04-26T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -189,24 +189,6 @@
     <t>Document de liaison d'urgence</t>
   </si>
   <si>
-    <t>urn:asip:ci-sis:dlu-dlu-dom:2022</t>
-  </si>
-  <si>
-    <t>Document de liaison d'urgence DOM</t>
-  </si>
-  <si>
-    <t>urn:asip:ci-sis:dlu-fludr-dom:2022</t>
-  </si>
-  <si>
-    <t>Fiche de liaison d'urgence - Retour des urgences vers le domicile</t>
-  </si>
-  <si>
-    <t>urn:asip:ci-sis:dlu-fludt-dom:2022</t>
-  </si>
-  <si>
-    <t>Fiche de liaison d'urgence - Transfert du domicile vers les urgences</t>
-  </si>
-  <si>
     <t>urn:asip:ci-sis:eunv:2013</t>
   </si>
   <si>
@@ -381,6 +363,21 @@
     <t>Feuille de style</t>
   </si>
   <si>
+    <t>urn:asip:ci-sis:dlu:2024</t>
+  </si>
+  <si>
+    <t>urn:asip:ci-sis:ft-su:2024</t>
+  </si>
+  <si>
+    <t>Fiche de transfert vers le service des urgences</t>
+  </si>
+  <si>
+    <t>urn:asip:ci-sis:fr-su:2024</t>
+  </si>
+  <si>
+    <t>Fiche de retour du service des urgences</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
@@ -445,9 +442,6 @@
   </si>
   <si>
     <t>urn:ihe:pcc:ips:2020</t>
-  </si>
-  <si>
-    <t>Synthèse du dossier médical</t>
   </si>
   <si>
     <t>urn:ihe:pharm:pre:2010</t>
@@ -1130,39 +1124,39 @@
         <v>115</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>116</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="B47" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="B47" t="s" s="2">
-        <v>118</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="B48" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="B48" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="B50" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="B50" t="s" s="2">
-        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1192,130 +1186,130 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="B2" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>125</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="B3" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>127</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="B4" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>129</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="B5" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>131</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="B6" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>133</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="B7" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>135</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="B8" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>137</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>139</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>141</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>143</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -1345,26 +1339,26 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -1394,26 +1388,26 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/ig/main/ValueSet-JDV-J10-XdsFormatCode-CISIS.xlsx
+++ b/ig/main/ValueSet-JDV-J10-XdsFormatCode-CISIS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="158">
   <si>
     <t>Property</t>
   </si>
@@ -78,6 +78,12 @@
     <t>ANS (https://esante.gouv.fr)</t>
   </si>
   <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>Description</t>
   </si>
   <si>
@@ -376,9 +382,6 @@
   </si>
   <si>
     <t>Fiche de retour du service des urgences</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>System URI</t>
@@ -620,7 +623,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -726,20 +729,28 @@
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" t="s" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s" s="2">
         <v>25</v>
+      </c>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -761,402 +772,402 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>120</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1178,138 +1189,138 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>120</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -1331,34 +1342,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>120</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -1380,34 +1391,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>120</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/ig/main/ValueSet-JDV-J10-XdsFormatCode-CISIS.xlsx
+++ b/ig/main/ValueSet-JDV-J10-XdsFormatCode-CISIS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="160">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-26T12:00:00+01:00</t>
+    <t>2024-07-26T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -382,6 +382,12 @@
   </si>
   <si>
     <t>Fiche de retour du service des urgences</t>
+  </si>
+  <si>
+    <t>urn:ans:ci-sis:trod:2024</t>
+  </si>
+  <si>
+    <t>Test rapide d'orientation diagnostique</t>
   </si>
   <si>
     <t>System URI</t>
@@ -760,7 +766,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1156,18 +1162,26 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>21</v>
+        <v>122</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>21</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>122</v>
+        <v>21</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>123</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1197,79 +1211,79 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>102</v>
@@ -1277,34 +1291,34 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16">
@@ -1317,10 +1331,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -1350,10 +1364,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3">
@@ -1366,10 +1380,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -1399,10 +1413,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3">
@@ -1415,10 +1429,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/ig/main/ValueSet-JDV-J10-XdsFormatCode-CISIS.xlsx
+++ b/ig/main/ValueSet-JDV-J10-XdsFormatCode-CISIS.xlsx
@@ -39,7 +39,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.3.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/ig/main/ValueSet-JDV-J10-XdsFormatCode-CISIS.xlsx
+++ b/ig/main/ValueSet-JDV-J10-XdsFormatCode-CISIS.xlsx
@@ -7,10 +7,10 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from TRE_A06-FormatCo" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from TRE_A11-IheForma" r:id="rId5" sheetId="3"/>
-    <sheet name="Include from TRE_A09-DICOMuid" r:id="rId6" sheetId="4"/>
-    <sheet name="Include from TRE_A10-Nomencla" r:id="rId7" sheetId="5"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #1" r:id="rId5" sheetId="3"/>
+    <sheet name="Include #2" r:id="rId6" sheetId="4"/>
+    <sheet name="Include #3" r:id="rId7" sheetId="5"/>
   </sheets>
 </workbook>
 </file>

--- a/ig/main/ValueSet-JDV-J10-XdsFormatCode-CISIS.xlsx
+++ b/ig/main/ValueSet-JDV-J10-XdsFormatCode-CISIS.xlsx
@@ -39,7 +39,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.4.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/ig/main/ValueSet-JDV-J10-XdsFormatCode-CISIS.xlsx
+++ b/ig/main/ValueSet-JDV-J10-XdsFormatCode-CISIS.xlsx
@@ -39,7 +39,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
